--- a/output/TRUXT_26262377000102.xlsx
+++ b/output/TRUXT_26262377000102.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.3875439000000001</v>
+        <v>0.3947685000000001</v>
       </c>
       <c r="C43">
-        <v>-0.009782256758655627</v>
+        <v>-0.004626436385821608</v>
       </c>
     </row>
   </sheetData>

--- a/output/TRUXT_26262377000102.xlsx
+++ b/output/TRUXT_26262377000102.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TRUXT I LONG SHORT FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,480 +383,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
       <c r="B2">
-        <v>0.006848799999999988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
-        <v>0.01820590000000011</v>
-      </c>
-      <c r="C3">
         <v>0.01127984658669723</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.03929749999999999</v>
-      </c>
-      <c r="C4">
         <v>0.02071447435140561</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.06031399999999998</v>
-      </c>
-      <c r="C5">
         <v>0.02022183253591958</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.07059520000000008</v>
-      </c>
-      <c r="C6">
         <v>0.00969637296121717</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.07344630000000008</v>
-      </c>
-      <c r="C7">
         <v>0.002663098059845659</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.08187429999999996</v>
-      </c>
-      <c r="C8">
         <v>0.007851347570903</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.09803980000000001</v>
-      </c>
-      <c r="C9">
         <v>0.01494212405267414</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.1070150999999999</v>
-      </c>
-      <c r="C10">
         <v>0.008173929578873196</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.1193131000000001</v>
-      </c>
-      <c r="C11">
         <v>0.01110915289231396</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.1177771999999999</v>
-      </c>
-      <c r="C12">
         <v>-0.001372180849129823</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.1174632</v>
-      </c>
-      <c r="C13">
         <v>-0.0002809146581267408</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.1275118</v>
-      </c>
-      <c r="C14">
         <v>0.008992331917507368</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.131737</v>
-      </c>
-      <c r="C15">
         <v>0.003747366546407838</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.1210028999999999</v>
-      </c>
-      <c r="C16">
         <v>-0.009484624077855663</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.1284675</v>
-      </c>
-      <c r="C17">
         <v>0.006658858777260912</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.1670773000000001</v>
-      </c>
-      <c r="C18">
         <v>0.03421436594319305</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.1726733</v>
-      </c>
-      <c r="C19">
         <v>0.004794883766482183</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.1889394</v>
-      </c>
-      <c r="C20">
         <v>0.01387095621602374</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.1819725000000001</v>
-      </c>
-      <c r="C21">
         <v>-0.005859760388123969</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.1835401000000001</v>
-      </c>
-      <c r="C22">
         <v>0.001326257590595459</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.1858445</v>
-      </c>
-      <c r="C23">
         <v>0.001947040070716444</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.1947924999999999</v>
-      </c>
-      <c r="C24">
         <v>0.007545677363262948</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.2041552</v>
-      </c>
-      <c r="C25">
         <v>0.007836256086307891</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.2232687</v>
-      </c>
-      <c r="C26">
         <v>0.01587295391823251</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.2422858999999999</v>
-      </c>
-      <c r="C27">
         <v>0.01554621646086418</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.2475403</v>
-      </c>
-      <c r="C28">
         <v>0.004229622182784221</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.2423679000000001</v>
-      </c>
-      <c r="C29">
         <v>-0.004146078487404337</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.2513114999999999</v>
-      </c>
-      <c r="C30">
         <v>0.007198833775405644</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.2475122000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.003036254361923341</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.2679549000000001</v>
-      </c>
-      <c r="C32">
         <v>0.01638677361231422</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.2864468</v>
-      </c>
-      <c r="C33">
         <v>0.01458403607257641</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.2821098</v>
-      </c>
-      <c r="C34">
         <v>-0.003371301479392685</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.2958002</v>
-      </c>
-      <c r="C35">
         <v>0.01067802461224465</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.3080255000000001</v>
-      </c>
-      <c r="C36">
         <v>0.009434556345955247</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.3372903</v>
-      </c>
-      <c r="C37">
         <v>0.02237326412978957</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.3840903</v>
-      </c>
-      <c r="C38">
         <v>0.03499614107722149</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.4190767</v>
-      </c>
-      <c r="C39">
         <v>0.02527754150144679</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.4378135999999999</v>
-      </c>
-      <c r="C40">
         <v>0.01320358511981756</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.4154301</v>
-      </c>
-      <c r="C41">
         <v>-0.01556773423203106</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.4012513</v>
-      </c>
-      <c r="C42">
         <v>-0.0100173085198626</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.3947685000000001</v>
-      </c>
-      <c r="C43">
-        <v>-0.004626436385821608</v>
+        <v>-0.006837531569105382</v>
       </c>
     </row>
   </sheetData>
